--- a/biology/Zoologie/Hesperolpiidae/Hesperolpiidae.xlsx
+++ b/biology/Zoologie/Hesperolpiidae/Hesperolpiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hesperolpiidae sont une famille de pseudoscorpions.
 Elle comporte près de 70 espèces dans onze genres.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Asie et en Europe du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Asie et en Europe du Sud.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Aphelolpium Hoff, 1964
 Apolpium Chamberlin, 1930
 Calocheirus Chamberlin, 1930
@@ -557,7 +573,7 @@
 Progarypus Beier, 1931
 Stenolpiodes Beier, 1959
 Stenolpium Beier, 1955
-La sous-famille des Hesperolpiinae, l'ancienne tribu des Hesperolpiini, a été élevée au rang de famille par Benavides, Cosgrove, Harvey et Giribet en 2019[2].
+La sous-famille des Hesperolpiinae, l'ancienne tribu des Hesperolpiini, a été élevée au rang de famille par Benavides, Cosgrove, Harvey et Giribet en 2019.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hoff, 1964 : The pseudoscorpions of Jamaica. Part 3. The suborder Diplosphyronida. Bulletin of the Institute of Jamaica, Science Series, vol. 10, no 3, p. 1-47.</t>
         </is>
